--- a/RR/excel/UiTesting/urls.xlsx
+++ b/RR/excel/UiTesting/urls.xlsx
@@ -32,7 +32,7 @@
     <t>Url Name</t>
   </si>
   <si>
-    <t>page/rewards_home</t>
+    <t>pages/rewards_home</t>
   </si>
   <si>
     <t>pages/my_profile</t>

--- a/RR/excel/UiTesting/urls.xlsx
+++ b/RR/excel/UiTesting/urls.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="urls" sheetId="1" r:id="rId1"/>
+    <sheet name="old_urls" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
   <si>
     <t>Url Name</t>
   </si>
@@ -198,6 +199,159 @@
   </si>
   <si>
     <t>new_reports/budget_utilization_report</t>
+  </si>
+  <si>
+    <t>rewards/buzz</t>
+  </si>
+  <si>
+    <t>rewards/notification</t>
+  </si>
+  <si>
+    <t>rewards/lookupteam</t>
+  </si>
+  <si>
+    <t>my_awards</t>
+  </si>
+  <si>
+    <t>my_nonmonetary_awards</t>
+  </si>
+  <si>
+    <t>hall_of_fame</t>
+  </si>
+  <si>
+    <t>long_service_wall</t>
+  </si>
+  <si>
+    <t>rewards/user_poll</t>
+  </si>
+  <si>
+    <t>rewards/poll</t>
+  </si>
+  <si>
+    <t>rewards/poll_question</t>
+  </si>
+  <si>
+    <t>hobbies</t>
+  </si>
+  <si>
+    <t>pages/survey_landing_page</t>
+  </si>
+  <si>
+    <t>pages/survey_report_dashboard</t>
+  </si>
+  <si>
+    <t>budget_details</t>
+  </si>
+  <si>
+    <t>nomination_monetary_awards</t>
+  </si>
+  <si>
+    <t>monetary_award_users/new</t>
+  </si>
+  <si>
+    <t>uploaded_nomination_files</t>
+  </si>
+  <si>
+    <t>uploaded_award_files</t>
+  </si>
+  <si>
+    <t>nonmonetary_award_users/new</t>
+  </si>
+  <si>
+    <t>nonmonetary_award_users/custom_wish_list</t>
+  </si>
+  <si>
+    <t>rewards/manager_to_manager_balance_transfer</t>
+  </si>
+  <si>
+    <t>manager_transfer_report</t>
+  </si>
+  <si>
+    <t>rewards/manager_budget_transfer</t>
+  </si>
+  <si>
+    <t>rewards/points_transfer</t>
+  </si>
+  <si>
+    <t>monetary_award_approval_list</t>
+  </si>
+  <si>
+    <t>my_nominations</t>
+  </si>
+  <si>
+    <t>past_given_awards</t>
+  </si>
+  <si>
+    <t>past_given_nonmonetary_awards</t>
+  </si>
+  <si>
+    <t>charts</t>
+  </si>
+  <si>
+    <t>stored_values</t>
+  </si>
+  <si>
+    <t>recognition_received_report</t>
+  </si>
+  <si>
+    <t>appreciation_received_report</t>
+  </si>
+  <si>
+    <t>redemption_reports</t>
+  </si>
+  <si>
+    <t>pending_nomination_report</t>
+  </si>
+  <si>
+    <t>rejected_nomination_report</t>
+  </si>
+  <si>
+    <t>manager_transfer_budget_report</t>
+  </si>
+  <si>
+    <t>login_report</t>
+  </si>
+  <si>
+    <t>peer_to_peer_transfer_report</t>
+  </si>
+  <si>
+    <t>users_reports</t>
+  </si>
+  <si>
+    <t>budget_utilization</t>
+  </si>
+  <si>
+    <t>hobby_club_dashboard</t>
+  </si>
+  <si>
+    <t>monetary_award_users/award_reverts_new_cancel</t>
+  </si>
+  <si>
+    <t>orders/my_voucher</t>
+  </si>
+  <si>
+    <t>pages/gift_card</t>
+  </si>
+  <si>
+    <t>add_points</t>
+  </si>
+  <si>
+    <t>pages/iwant</t>
+  </si>
+  <si>
+    <t>pages/add_family_member</t>
+  </si>
+  <si>
+    <t>dineout/dineoutreservelist</t>
+  </si>
+  <si>
+    <t>mywallet</t>
+  </si>
+  <si>
+    <t>rewards/view_profile</t>
+  </si>
+  <si>
+    <t>contact-advantage-club</t>
   </si>
 </sst>
 </file>
@@ -1145,8 +1299,8 @@
   <sheetPr/>
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1459,4 +1613,297 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="45.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/RR/excel/UiTesting/urls.xlsx
+++ b/RR/excel/UiTesting/urls.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
   <si>
     <t>Url Name</t>
   </si>
@@ -138,9 +138,6 @@
     <t>new_reports/user_reports</t>
   </si>
   <si>
-    <t>new_reports/login_report</t>
-  </si>
-  <si>
     <t>new_reports/stored_value_report</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>new_reports/credit_transfer_report</t>
   </si>
   <si>
-    <t>new_reports/login_session_report</t>
-  </si>
-  <si>
     <t>new_reports/budget_utilization_report</t>
   </si>
   <si>
@@ -307,9 +301,6 @@
   </si>
   <si>
     <t>manager_transfer_budget_report</t>
-  </si>
-  <si>
-    <t>login_report</t>
   </si>
   <si>
     <t>peer_to_peer_transfer_report</t>
@@ -1297,10 +1288,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1558,9 +1549,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1571,12 +1565,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -1597,16 +1588,6 @@
     <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1618,10 +1599,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1639,102 +1620,102 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -1744,162 +1725,157 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
